--- a/doc/Bericht/05_Technischer Bericht/03_Vorstudie/NutzwertmatrixMonitorkonstellationVideoWall.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/03_Vorstudie/NutzwertmatrixMonitorkonstellationVideoWall.xlsx
@@ -187,6 +187,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -203,16 +213,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,48 +529,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -579,22 +579,22 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -605,24 +605,24 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B5*C5</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
-        <f>B5*C5</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="F5" s="8">
         <f>B5*E5</f>
         <v>10</v>
       </c>
-      <c r="G5" s="13">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
         <f>B5*G5</f>
         <v>25</v>
       </c>
@@ -634,24 +634,24 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D8" si="0">B6*C6</f>
         <v>12</v>
       </c>
-      <c r="E6" s="13">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" ref="F6:F8" si="1">B6*E6</f>
         <v>15</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H8" si="2">B6*G6</f>
         <v>6</v>
       </c>
@@ -663,24 +663,24 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="13">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -690,28 +690,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E8" s="13">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G8" s="13">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -719,20 +719,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <f>SUM(D5:D8)</f>
-        <v>47</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16">
+        <v>57</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
         <f>SUM(F5:F8)</f>
-        <v>42</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16">
+        <v>45</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
         <f>SUM(H5:H8)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -740,46 +740,46 @@
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
         <f>IF(D9&gt;=F9,IF(D9&gt;=H9,1,2),IF(D9&gt;=H9,2,3))</f>
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
         <f>IF(F9&gt;=H9,IF(F9&gt;=D9,1,2),IF(F9&gt;=D9,2,3))</f>
         <v>2</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
         <f>IF(H9&gt;=D9,IF(H9&gt;=F9,1,2),IF(H9&gt;=F9,2,3))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
